--- a/biology/Médecine/Hôpital_Mongi-Slim_de_La_Marsa/Hôpital_Mongi-Slim_de_La_Marsa.xlsx
+++ b/biology/Médecine/Hôpital_Mongi-Slim_de_La_Marsa/Hôpital_Mongi-Slim_de_La_Marsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Mongi-Slim_de_La_Marsa</t>
+          <t>Hôpital_Mongi-Slim_de_La_Marsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Mongi-Slim de La Marsa est un établissement de santé publique tunisien situé à La Marsa, bâti à la suite du décret n° 91-1844 du 2 décembre 1991[1] et baptisé en hommage au militant tunisien Mongi Slim.
-Avec une capacité de 246 lits[2], il devient le centre sanitaire de la banlieue nord de Tunis, offrant des soins, de la prévention, de l'enseignement et de la recherche[1].
+L'hôpital Mongi-Slim de La Marsa est un établissement de santé publique tunisien situé à La Marsa, bâti à la suite du décret n° 91-1844 du 2 décembre 1991 et baptisé en hommage au militant tunisien Mongi Slim.
+Avec une capacité de 246 lits, il devient le centre sanitaire de la banlieue nord de Tunis, offrant des soins, de la prévention, de l'enseignement et de la recherche.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Mongi-Slim_de_La_Marsa</t>
+          <t>Hôpital_Mongi-Slim_de_La_Marsa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On y trouve, en 2017, un certain nombre de services dont on peut citer[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y trouve, en 2017, un certain nombre de services dont on peut citer :
 un service de médecine interne (32 lits) ;
 un service de cardiologie (32 lits) ;
 un service de gynécologie obstétrique (45 lits) ;
@@ -527,8 +541,8 @@
 un service de pédopsychiatrie qui comprend un hôpital de jour inauguré en 2019 ;
 un service d'urgences ;
 un service d'imagerie diagnostique et interventionnelle ;
-un service de néphrologie qui comprend une unité d'hémodialyse et une unité d'anatomopathologie rénale[3].
-Un service de chirurgie orthopédique et traumatologique y est inauguré en janvier 2015[4].
+un service de néphrologie qui comprend une unité d'hémodialyse et une unité d'anatomopathologie rénale.
+Un service de chirurgie orthopédique et traumatologique y est inauguré en janvier 2015.
 L'hôpital comporte aussi un service de consultations externes. On y trouve des consultations d'ophtalmologie, de dermatologie, d'ORL, de psychiatrie et d'endocrinologie. 
 </t>
         </is>
